--- a/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10203/001_modify_project/db_dump/EXPECTED.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10203/001_modify_project/db_dump/EXPECTED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\pre-release\nablarch-development-guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\src\test\resources\jmeter\002_modify_project\db_dump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\pre-release\nablarch-development-guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\src\test\resources\WA10203\001_modify_project\db_dump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675BF8F-FFC6-457C-9400-54E804A75232}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1949D5B-5590-4665-833B-EBD24B08EAA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2700" windowWidth="21615" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="91" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="1624">
   <si>
     <t>1</t>
   </si>
@@ -4888,15 +4888,6 @@
   </si>
   <si>
     <t>プロジェクト名１０（更新）</t>
-  </si>
-  <si>
-    <t>2020-08-19</t>
-  </si>
-  <si>
-    <t>鈴木</t>
-  </si>
-  <si>
-    <t>佐藤</t>
   </si>
   <si>
     <t>備考１０（更新）</t>
@@ -4904,6 +4895,12 @@
   <si>
     <t>備考１９９_x000D_
 改行あり表示テスト</t>
+  </si>
+  <si>
+    <t>マネージャー１０（更新）</t>
+  </si>
+  <si>
+    <t>リーダー１０（更新）</t>
   </si>
 </sst>
 </file>
@@ -5377,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3618C5AA-6FAA-4CEF-8F4F-9B8AF57CC6F6}">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="K201" sqref="K201:L201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J201" sqref="J201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5804,31 +5801,31 @@
         <v>1619</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1620</v>
+        <v>105</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>109</v>
@@ -13577,7 +13574,7 @@
         <v>1604</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>1605</v>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10203/001_modify_project/db_dump/EXPECTED.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10203/001_modify_project/db_dump/EXPECTED.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\src\test\resources\WA10203\001_modify_project\db_dump\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EC67B-647C-4BEC-B5E9-224F1A78CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB073E0-3EAD-4178-937A-D321D336B1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="91" r:id="rId1"/>
